--- a/Data/EC/NIT-9006710723.xlsx
+++ b/Data/EC/NIT-9006710723.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748048D7-8987-4540-85A6-51BF9ACC07D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A887535-D360-4FA1-A52E-20DF423B3F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A413386-085A-40A3-A6CE-316296DE317F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{415B2DBF-C673-498A-8FBE-70FB820A914D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="90">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,223 +71,208 @@
     <t>ORLANDO ENRIQUE VELASQUEZ OSORIO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>72186707</t>
+  </si>
+  <si>
+    <t>LEONARDO QUIROGA SOTO</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>9287165</t>
+  </si>
+  <si>
+    <t>AMAURY ENRIQUE VELASQUEZ OSORIO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1143344627</t>
+  </si>
+  <si>
+    <t>KATHERINE VELASQUEZ FIGUEROA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1050972442</t>
+  </si>
+  <si>
+    <t>MARTIN OROZCO MARTINEZ</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
     <t>2408</t>
   </si>
   <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>9287165</t>
-  </si>
-  <si>
-    <t>AMAURY ENRIQUE VELASQUEZ OSORIO</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1143344627</t>
-  </si>
-  <si>
-    <t>KATHERINE VELASQUEZ FIGUEROA</t>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>2505</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1050972442</t>
-  </si>
-  <si>
-    <t>MARTIN OROZCO MARTINEZ</t>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1050956486</t>
-  </si>
-  <si>
-    <t>LIZBETH CAROLINA LOMBANA ORTIZ</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1044918263</t>
-  </si>
-  <si>
-    <t>AXEL ENRIQUE LOPEZ ORTIZ</t>
-  </si>
-  <si>
-    <t>72186707</t>
-  </si>
-  <si>
-    <t>LEONARDO QUIROGA SOTO</t>
-  </si>
-  <si>
-    <t>2207</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -386,7 +371,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -399,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -601,23 +586,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,10 +630,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8476FA75-F264-FAD6-9F45-E3298B08FAEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF82828-295C-4DFC-DCAF-07C8C522702A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,8 +1037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB96F2F6-1B40-4964-A567-09477D83065F}">
-  <dimension ref="B2:J155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FDFE6E-A4E3-4C9B-A284-2C3A25BAFBC2}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1077,7 +1062,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1122,7 +1107,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1154,12 +1139,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10746763</v>
+        <v>7734483</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1170,17 +1155,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1207,13 +1192,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1230,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1253,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1276,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1299,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>1300000</v>
@@ -1322,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1345,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>1300000</v>
@@ -1368,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1391,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1414,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>120000</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>1300000</v>
@@ -1437,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>240000</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>1300000</v>
@@ -1460,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>240000</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>1300000</v>
@@ -1483,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1506,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>1300000</v>
@@ -1529,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>1300000</v>
@@ -1552,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1575,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1828,7 +1813,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>1300000</v>
@@ -1851,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>1300000</v>
@@ -1874,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>1300000</v>
@@ -1897,7 +1882,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1920,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1934,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>88000</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>2200000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1963,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>240000</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1980,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2009,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>240000</v>
       </c>
       <c r="G50" s="18">
         <v>1300000</v>
@@ -2026,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G51" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2055,10 +2040,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G52" s="18">
         <v>1300000</v>
@@ -2072,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2095,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>110070</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2124,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G55" s="18">
         <v>1300000</v>
@@ -2141,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>120000</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2164,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>110070</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2187,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F58" s="18">
         <v>120000</v>
       </c>
       <c r="G58" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2210,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F59" s="18">
         <v>120000</v>
@@ -2233,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>110070</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>2751750</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2256,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F61" s="18">
         <v>120000</v>
       </c>
       <c r="G61" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2279,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F62" s="18">
         <v>120000</v>
@@ -2302,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F63" s="18">
-        <v>120000</v>
+        <v>110070</v>
       </c>
       <c r="G63" s="18">
-        <v>3000000</v>
+        <v>2751750</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2325,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
         <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2348,13 +2333,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F65" s="18">
         <v>120000</v>
@@ -2371,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F66" s="18">
-        <v>120000</v>
+        <v>110070</v>
       </c>
       <c r="G66" s="18">
-        <v>3000000</v>
+        <v>2751750</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2394,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F67" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2417,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F68" s="18">
         <v>120000</v>
       </c>
       <c r="G68" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2440,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F69" s="18">
         <v>120000</v>
@@ -2463,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F70" s="18">
-        <v>120000</v>
+        <v>110070</v>
       </c>
       <c r="G70" s="18">
-        <v>3000000</v>
+        <v>2751750</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2486,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F71" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G71" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2509,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F72" s="18">
         <v>120000</v>
@@ -2532,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
-        <v>120000</v>
+        <v>110070</v>
       </c>
       <c r="G73" s="18">
-        <v>3000000</v>
+        <v>2751750</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2555,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F74" s="18">
-        <v>110070</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2578,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F75" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G75" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2601,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="F76" s="18">
         <v>110070</v>
@@ -2624,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F77" s="18">
-        <v>110070</v>
+        <v>46400</v>
       </c>
       <c r="G77" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2647,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D78" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F78" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G78" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2670,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F79" s="18">
         <v>110070</v>
@@ -2693,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F80" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G80" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2716,13 +2701,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F81" s="18">
         <v>110070</v>
@@ -2739,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F82" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G82" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2762,13 +2747,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F83" s="18">
         <v>110070</v>
@@ -2785,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F84" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2808,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F85" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G85" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2831,13 +2816,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F86" s="18">
         <v>110070</v>
@@ -2854,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F87" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2877,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F88" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2900,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F89" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G89" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2923,13 +2908,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F90" s="18">
         <v>110070</v>
@@ -2946,19 +2931,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F91" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2969,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F92" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G92" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2992,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
-        <v>110070</v>
+        <v>120000</v>
       </c>
       <c r="G93" s="18">
-        <v>2751750</v>
+        <v>3000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3015,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F94" s="18">
         <v>110070</v>
@@ -3038,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F95" s="18">
-        <v>110070</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>2751750</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3061,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F96" s="18">
         <v>110070</v>
@@ -3084,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F97" s="18">
         <v>52000</v>
@@ -3107,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3130,13 +3115,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F99" s="18">
         <v>52000</v>
@@ -3153,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F100" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G100" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3176,13 +3161,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F101" s="18">
         <v>52000</v>
@@ -3199,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F102" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G102" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3222,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F103" s="18">
         <v>52000</v>
@@ -3245,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F104" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3268,13 +3253,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
@@ -3291,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E106" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3314,13 +3299,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="F107" s="18">
         <v>52000</v>
@@ -3337,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F108" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3360,13 +3345,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3383,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F110" s="18">
-        <v>52000</v>
+        <v>110070</v>
       </c>
       <c r="G110" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3406,16 +3391,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F111" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G111" s="18">
         <v>1300000</v>
@@ -3429,19 +3414,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F112" s="18">
-        <v>46400</v>
+        <v>110070</v>
       </c>
       <c r="G112" s="18">
-        <v>1300000</v>
+        <v>2751750</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3452,16 +3437,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F113" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G113" s="18">
         <v>1300000</v>
@@ -3475,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F114" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G114" s="18">
         <v>1300000</v>
@@ -3498,834 +3483,75 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F115" s="18">
-        <v>90400</v>
+        <v>52000</v>
       </c>
       <c r="G115" s="18">
-        <v>2260000</v>
+        <v>1300000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G116" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F117" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G117" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F118" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G118" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F119" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G119" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F120" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G120" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F116" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G116" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F121" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G121" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="B121" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G122" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F123" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G123" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G124" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F125" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G125" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G126" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G127" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G128" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F129" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G129" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F130" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G130" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G131" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G132" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F133" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G133" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G134" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G135" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G136" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G137" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G138" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G139" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F140" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G140" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G141" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G142" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F143" s="18">
-        <v>85880</v>
-      </c>
-      <c r="G143" s="18">
-        <v>2260000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F144" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F145" s="18">
-        <v>88000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F146" s="18">
-        <v>88000</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F147" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F148" s="18">
-        <v>90400</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F149" s="24">
-        <v>88000</v>
-      </c>
-      <c r="G149" s="24">
-        <v>2200000</v>
-      </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" s="32"/>
-      <c r="H154" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" s="32"/>
-      <c r="H155" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="B122" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
